--- a/data/annotations/new_annotation_structure_out/iteration_3/iteration_3_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_3/iteration_3_mistral-large-2411-2.xlsx
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -5896,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
